--- a/Projekt/PB_0 Popis dolumentacije za projekt e-Inspektor, Tim -T27_Plan B.xlsx
+++ b/Projekt/PB_0 Popis dolumentacije za projekt e-Inspektor, Tim -T27_Plan B.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>Rbr.</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>Specifikacija slučajeva korištenja za ažuriranje podataka o poreznim obveznicima  u  VIES registru</t>
+  </si>
+  <si>
+    <t>14.04.2014.</t>
+  </si>
+  <si>
+    <t>izmjene plana</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1200,163 +1206,161 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>13</v>
-      </c>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="8" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B9" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F9" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+    <row r="10" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C11" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D11" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E11" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F11" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+    <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B12" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C12" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D12" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E12" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F12" s="43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="13" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>23</v>
@@ -1365,38 +1369,38 @@
         <v>48</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>23</v>
@@ -1405,56 +1409,68 @@
         <v>57</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F18" s="14" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
@@ -1648,19 +1664,27 @@
       <c r="E42" s="21"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Projekt/PB_0 Popis dolumentacije za projekt e-Inspektor, Tim -T27_Plan B.xlsx
+++ b/Projekt/PB_0 Popis dolumentacije za projekt e-Inspektor, Tim -T27_Plan B.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
   <si>
     <t>Rbr.</t>
   </si>
@@ -249,6 +249,75 @@
   </si>
   <si>
     <t>izmjene plana</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>PB_14</t>
+  </si>
+  <si>
+    <t>24.04.2014.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifikacija slučajeva korištenja VIES registra </t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>PB_15</t>
+  </si>
+  <si>
+    <t>Analiza poslovnih procesa vezanih uz PDV registar</t>
+  </si>
+  <si>
+    <t>25.04.2014.</t>
+  </si>
+  <si>
+    <t>Analiza funkcionalnosti PDV registra</t>
+  </si>
+  <si>
+    <t>Specifikacija UC020 Upravljanje sadržajima VIES registra</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>PB_16</t>
+  </si>
+  <si>
+    <t>Specifikacija UC300 Unos PDV podataka u registar</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>PB_17</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>PB_18</t>
+  </si>
+  <si>
+    <t>Specifikacija UC301 Pretraživanje PDV podataka</t>
+  </si>
+  <si>
+    <t>Specifikacija UC302 Ažuriranje registra PDV podataka</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>PB_19</t>
+  </si>
+  <si>
+    <t>Specifikacija UC303 Kontrola PDV podataka</t>
+  </si>
+  <si>
+    <t>Specifikacija slučajeva korištenja</t>
   </si>
 </sst>
 </file>
@@ -1122,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1472,53 +1541,125 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="14"/>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>

--- a/Projekt/PB_0 Popis dolumentacije za projekt e-Inspektor, Tim -T27_Plan B.xlsx
+++ b/Projekt/PB_0 Popis dolumentacije za projekt e-Inspektor, Tim -T27_Plan B.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
   <si>
     <t>Rbr.</t>
   </si>
@@ -318,6 +318,21 @@
   </si>
   <si>
     <t>Specifikacija slučajeva korištenja</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>PB_20</t>
+  </si>
+  <si>
+    <t>Dizajn arjitekture aplikacije e-Inspektor</t>
+  </si>
+  <si>
+    <t>27.04.2014.</t>
+  </si>
+  <si>
+    <t>Generirano iz UML-a</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1207,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1662,12 +1677,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="14"/>
+      <c r="A25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>

--- a/Projekt/PB_0 Popis dolumentacije za projekt e-Inspektor, Tim -T27_Plan B.xlsx
+++ b/Projekt/PB_0 Popis dolumentacije za projekt e-Inspektor, Tim -T27_Plan B.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="113">
   <si>
     <t>Rbr.</t>
   </si>
@@ -333,6 +333,30 @@
   </si>
   <si>
     <t>Generirano iz UML-a</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>PB_21</t>
+  </si>
+  <si>
+    <t>Specifikacija slučajeva korištenja UC102 Upravljanjem funkcionalnostima aplikacije</t>
+  </si>
+  <si>
+    <t>05.05.2014.</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>PB_22</t>
+  </si>
+  <si>
+    <t>Popis ekrana aplikacije e-Inspektor</t>
+  </si>
+  <si>
+    <t>Popis ekrana aplikacije</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1231,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1696,21 +1720,45 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="14"/>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="14"/>
+      <c r="A27" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>

--- a/Projekt/PB_0 Popis dolumentacije za projekt e-Inspektor, Tim -T27_Plan B.xlsx
+++ b/Projekt/PB_0 Popis dolumentacije za projekt e-Inspektor, Tim -T27_Plan B.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="117">
   <si>
     <t>Rbr.</t>
   </si>
@@ -341,9 +341,6 @@
     <t>PB_21</t>
   </si>
   <si>
-    <t>Specifikacija slučajeva korištenja UC102 Upravljanjem funkcionalnostima aplikacije</t>
-  </si>
-  <si>
     <t>05.05.2014.</t>
   </si>
   <si>
@@ -357,6 +354,21 @@
   </si>
   <si>
     <t>Popis ekrana aplikacije</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>PB_23</t>
+  </si>
+  <si>
+    <t>08.05.2014.</t>
+  </si>
+  <si>
+    <t>Specifikacija UC030 Upravljanje funkcionalnostima PDV registra</t>
+  </si>
+  <si>
+    <t>Specifikacija UC102 Upravljanjem funkcionalnostima aplikacije</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1243,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1728,13 +1740,13 @@
         <v>106</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>108</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>99</v>
@@ -1742,31 +1754,43 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="14" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="14"/>
+      <c r="B28" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
